--- a/车票.xlsx
+++ b/车票.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
   <si>
     <t>南京</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -45,6 +45,10 @@
   </si>
   <si>
     <t>上海</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -81,10 +85,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <family val="2"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -515,7 +521,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -669,12 +675,24 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" s="5"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+      <c r="A9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2">
+        <v>43179</v>
+      </c>
+      <c r="C9" s="1">
+        <v>538.5</v>
+      </c>
+      <c r="D9" s="2">
+        <v>43189</v>
+      </c>
+      <c r="E9" s="1">
+        <v>538.5</v>
+      </c>
+      <c r="F9" s="1">
+        <v>10</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="5"/>

--- a/车票.xlsx
+++ b/车票.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>南京</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -53,6 +53,14 @@
   </si>
   <si>
     <t>北京</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -521,7 +529,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -695,20 +703,44 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A10" s="5"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+      <c r="A10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2">
+        <v>43209</v>
+      </c>
+      <c r="C10" s="1">
+        <v>538.5</v>
+      </c>
+      <c r="D10" s="2">
+        <v>43210</v>
+      </c>
+      <c r="E10" s="1">
+        <v>538.5</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A11" s="5"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+      <c r="A11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="2">
+        <v>43223</v>
+      </c>
+      <c r="C11" s="1">
+        <v>219</v>
+      </c>
+      <c r="D11" s="2">
+        <v>43223</v>
+      </c>
+      <c r="E11" s="1">
+        <v>155</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="5"/>

--- a/车票.xlsx
+++ b/车票.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
   <si>
     <t>南京</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -61,6 +61,54 @@
   </si>
   <si>
     <t>上海</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无锡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南京</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安阳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青岛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>舟山</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -137,7 +185,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -154,6 +202,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -526,17 +575,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="6"/>
     <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.125" bestFit="1" customWidth="1"/>
@@ -689,13 +738,13 @@
       <c r="B9" s="2">
         <v>43179</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="7">
         <v>538.5</v>
       </c>
       <c r="D9" s="2">
         <v>43189</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="7">
         <v>538.5</v>
       </c>
       <c r="F9" s="1">
@@ -709,13 +758,13 @@
       <c r="B10" s="2">
         <v>43209</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="7">
         <v>538.5</v>
       </c>
       <c r="D10" s="2">
         <v>43210</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="7">
         <v>538.5</v>
       </c>
       <c r="F10" s="1">
@@ -729,13 +778,13 @@
       <c r="B11" s="2">
         <v>43223</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="7">
         <v>219</v>
       </c>
       <c r="D11" s="2">
         <v>43223</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="7">
         <v>155</v>
       </c>
       <c r="F11" s="1">
@@ -743,44 +792,291 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A12" s="5"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
+      <c r="A12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="2">
+        <v>43245</v>
+      </c>
+      <c r="C12" s="7">
+        <v>131</v>
+      </c>
+      <c r="D12" s="2">
+        <v>43246</v>
+      </c>
+      <c r="E12" s="7">
+        <v>131</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A13" s="5"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
+      <c r="A13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="2">
+        <v>43280</v>
+      </c>
+      <c r="C13" s="1">
+        <v>538.5</v>
+      </c>
+      <c r="D13" s="2">
+        <v>43285</v>
+      </c>
+      <c r="E13" s="1">
+        <v>538.5</v>
+      </c>
+      <c r="F13" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A14" s="5"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
+      <c r="A14" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="2">
+        <v>43305</v>
+      </c>
+      <c r="C14" s="1">
+        <v>561</v>
+      </c>
+      <c r="D14" s="2">
+        <v>43309</v>
+      </c>
+      <c r="E14" s="1">
+        <f>197+561.5</f>
+        <v>758.5</v>
+      </c>
+      <c r="F14" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A15" s="5"/>
-      <c r="B15" s="1"/>
+      <c r="A15" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="2">
+        <v>43382</v>
+      </c>
       <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
+      <c r="D15" s="2">
+        <v>43386</v>
+      </c>
       <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
+      <c r="F15" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A16" s="5"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
+      <c r="A16" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="2">
+        <v>43402</v>
+      </c>
+      <c r="C16" s="1">
+        <v>907</v>
+      </c>
+      <c r="D16" s="2">
+        <v>43406</v>
+      </c>
+      <c r="E16" s="1">
+        <v>538.5</v>
+      </c>
+      <c r="F16" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A17" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="2">
+        <v>43451</v>
+      </c>
+      <c r="C17" s="8">
+        <v>514.5</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A18" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="2">
+        <v>43453</v>
+      </c>
+      <c r="C18" s="8">
+        <v>236</v>
+      </c>
+      <c r="D18" s="2">
+        <v>43456</v>
+      </c>
+      <c r="E18" s="1">
+        <v>538.5</v>
+      </c>
+      <c r="F18" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A19" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="2">
+        <v>43487</v>
+      </c>
+      <c r="C19" s="8">
+        <v>1814</v>
+      </c>
+      <c r="D19" s="2">
+        <v>43491</v>
+      </c>
+      <c r="E19" s="1">
+        <v>538.5</v>
+      </c>
+      <c r="F19" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A20" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="2">
+        <v>43530</v>
+      </c>
+      <c r="C20" s="8">
+        <v>538.5</v>
+      </c>
+      <c r="D20" s="2">
+        <v>43536</v>
+      </c>
+      <c r="E20" s="1">
+        <v>538.5</v>
+      </c>
+      <c r="F20" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A21" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="2">
+        <v>43542</v>
+      </c>
+      <c r="C21" s="8">
+        <v>538.5</v>
+      </c>
+      <c r="D21" s="2">
+        <v>43545</v>
+      </c>
+      <c r="E21" s="1">
+        <v>538.5</v>
+      </c>
+      <c r="F21" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A22" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="2">
+        <v>43550</v>
+      </c>
+      <c r="C22" s="8">
+        <v>516</v>
+      </c>
+      <c r="D22" s="2">
+        <v>43187</v>
+      </c>
+      <c r="E22" s="1">
+        <v>514</v>
+      </c>
+      <c r="F22" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A23" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="2">
+        <v>43571</v>
+      </c>
+      <c r="C23" s="8">
+        <v>538.5</v>
+      </c>
+      <c r="D23" s="2">
+        <v>43574</v>
+      </c>
+      <c r="E23" s="1">
+        <v>538.5</v>
+      </c>
+      <c r="F23" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A24" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="2">
+        <v>43578</v>
+      </c>
+      <c r="C24" s="8">
+        <v>318</v>
+      </c>
+      <c r="D24" s="2">
+        <v>43580</v>
+      </c>
+      <c r="E24" s="1">
+        <v>318</v>
+      </c>
+      <c r="F24" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A25" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="2">
+        <v>43626</v>
+      </c>
+      <c r="C25" s="8">
+        <v>110</v>
+      </c>
+      <c r="D25" s="2">
+        <v>43630</v>
+      </c>
+      <c r="E25" s="1">
+        <v>106</v>
+      </c>
+      <c r="F25" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A26" s="5"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="8"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F27">
+        <f>SUM(F2:F26)</f>
+        <v>84</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
